--- a/Отчет о дефектах.xlsx
+++ b/Отчет о дефектах.xlsx
@@ -130,7 +130,7 @@
 Step 3
 Action: Нажать на кнопку "Добавить в корзину"
 Expected Result: Появляется сообщение об ошибке. Товар не добавлен в корзинку.
-Ожидаемый результат: Отсутствие ошибки, товар добавляется в корзину </t>
+Ожидаемый результат: Отсутствие ошибки, товар добавляется в корзину</t>
   </si>
   <si>
     <t xml:space="preserve">G8-435</t>
@@ -166,7 +166,7 @@
 ### Actual result
 Успешное добавление некорректного (=0) количества товаров в корзину авторизованного пользователя
 Qase.io defect: [Добавление некорректного (=0) количества товаров в корзину авторизованного пользователя](https://app.qase.io/defect/G8/view/283)
-Found in test run: [Express run 2024/08/25](https://app.qase.io/run/G8/dashboard/116)</t>
+Found in test run: [Express run 2024/08/25]</t>
   </si>
   <si>
     <t xml:space="preserve">G8-513</t>
@@ -183,7 +183,7 @@
 Ожидаемый результат:
 Шаг 2: Вести в поле "Макс. цена" отрицательное число
 Ожидаемый результат: Нельзя ввести отрицательное число
-Фактический результат: Отрицательное число вводится</t>
+Фактический результат: Отрицательное число вводится </t>
   </si>
   <si>
     <t xml:space="preserve">G8-510</t>
@@ -200,7 +200,7 @@
 Ожидаемый результат: 
 Шаг 2: Вести в поле "Мин. цена" отрицательное число
 Ожидаемый результат: Нельзя ввести отрицательное число
-Фактический результат: Отрицательное число вводится</t>
+Фактический результат: Отрицательное число вводится </t>
   </si>
   <si>
     <t xml:space="preserve">G8-507</t>
@@ -226,7 +226,7 @@
 Expected Result: Список товаров обновляется согласно выбранной сортировке
 Step 6
 Action: Выбрать из списка сортировки значение сортировки "Цена по убыванию"
-Expected Result: Список товаров обновляется согласно выбранной сортировке</t>
+Expected Result: Список товаров обновляется согласно выбранной сортировке </t>
   </si>
   <si>
     <t xml:space="preserve">G8-431</t>
@@ -257,7 +257,7 @@
 ### Actual result
 Список товаров некорректно обновляется согласно выбранной сортировке "цена по возрастанию"
 Qase.io defect: [Список товаров обновляется согласно выбранной сортировке](https://app.qase.io/defect/G8/view/279)
-Found in test run: [Express run 2024/08/25](https://app.qase.io/run/G8/dashboard/116)</t>
+Found in test run: [Express run 2024/08/25]</t>
   </si>
   <si>
     <t xml:space="preserve">G8-410</t>
@@ -293,7 +293,7 @@
 ### Actual result
 Некорректное сообщение при входе в систему с несуществующим логином и верным паролем
 Qase.io defect: [Авторизация: сообщение об ошибке при входе в систему с несуществующим логином и верным паролем](https://app.qase.io/defect/G8/view/264)
-Found in test run: [Express run 2024/08/25](https://app.qase.io/run/G8/dashboard/112)</t>
+Found in test run: [Express run 2024/08/25]</t>
   </si>
   <si>
     <t xml:space="preserve">G8-505</t>
@@ -312,7 +312,7 @@
 Ожидаемый результат: Появляется сообщение о необходимости авторизации
 Шаг 3: Перейти на ссылке
 Ожидаемый результат: Пользователь перенаправляется на страницу входа
-**Фактический результат: ** Пользователь перенаправляется на страницу каталога</t>
+**Фактический результат: ** Пользователь перенаправляется на страницу каталога </t>
   </si>
   <si>
     <t xml:space="preserve">G8-411</t>
@@ -342,7 +342,7 @@
 ### Actual result
 Некорректное сообщение при входе в систему с несуществующим логином и неверным паролем
 Qase.io defect: [Авторизация: сообщение об ошибке при входе в систему с несуществующим логином и неверным паролем](https://app.qase.io/defect/G8/view/265)
-Found in test run: [Express run 2024/08/25](https://app.qase.io/run/G8/dashboard/112)</t>
+Found in test run: [Express run 2024/08/25] </t>
   </si>
   <si>
     <t xml:space="preserve">G8-409</t>
@@ -372,7 +372,7 @@
 ### Actual result
 Некорректное сообщение об ошибке при входе в систему с существующим логином и неверным паролем
 Qase.io defect: [Авторизация: сообщение об ошибке при входе в систему с существующим логином и неверным паролем](https://app.qase.io/defect/G8/view/260)
-Found in test run: [Express run 2024/08/25](https://app.qase.io/run/G8/dashboard/112)</t>
+Found in test run: [Express run 2024/08/25]</t>
   </si>
   <si>
     <t xml:space="preserve">G8-408</t>
@@ -405,7 +405,7 @@
 ### Actual result
 Некорректное сообщение об ошибке при регистрации пользователя с невалидным логином и валидным паролем
 Qase.io defect: [Сообщение об ошибке при регистрации пользователя с невалидным логином и валидным паролем](https://app.qase.io/defect/G8/view/257)
-Found in test run: [Express run 2024/08/25](https://app.qase.io/run/G8/dashboard/112)</t>
+Found in test run: [Express run 2024/08/25]</t>
   </si>
   <si>
     <t xml:space="preserve">G8-436</t>
@@ -429,7 +429,7 @@
 ### Actual result
 Невалидное добавление некорректного (&lt;0) количества товаров в корзину авторизованного пользователя
 Qase.io defect: [Добавление некорректного (&amp;lt;0) количества товаров в корзину авторизованного пользователя](https://app.qase.io/defect/G8/view/284)
-Found in test run: [Express run 2024/08/25](https://app.qase.io/run/G8/dashboard/116)</t>
+Found in test run: [Express run 2024/08/25]</t>
   </si>
   <si>
     <t xml:space="preserve">G8-429</t>
@@ -448,7 +448,7 @@
 ### Actual result
 На странице "Каталог" отображено некорректное количество товаров
 Qase.io defect: [Страница &amp;quot;Каталог&amp;quot; отображает фиксированное количество товаров](https://app.qase.io/defect/G8/view/278)
-Found in test run: [Express run 2024/08/25](https://app.qase.io/run/G8/dashboard/116)</t>
+Found in test run: [Express run 2024/08/25]</t>
   </si>
   <si>
     <t xml:space="preserve">G8-401</t>
@@ -478,7 +478,7 @@
 ### Actual result
 #
 Qase.io defect: [Регистрация нового пользователя в системе с валидным логином и паролем](https://app.qase.io/defect/G8/view/251)
-Found in test run: [Express run 2024/08/25](https://app.qase.io/run/G8/dashboard/112)</t>
+Found in test run: [Express run 2024/08/25]</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
     <numFmt numFmtId="166" formatCode="#,##0;[RED]\-#,##0"/>
     <numFmt numFmtId="167" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -546,8 +546,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,11 +570,41 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF66"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFF9F9CA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA6A6"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF5CE"/>
+        <bgColor rgb="FFF9F9CA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9CA"/>
+        <bgColor rgb="FFFFF5CE"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -670,6 +707,13 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -736,29 +780,121 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -803,12 +939,12 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFF9F9CA"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -819,10 +955,10 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFF5CE"/>
       <rgbColor rgb="FFFFFF66"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FFFFA6A6"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -959,15 +1095,15 @@
   </sheetPr>
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q22" activeCellId="0" sqref="Q16:Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="124.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.05"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.54"/>
@@ -980,866 +1116,868 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="20.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="132.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="13.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="19" style="4" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="37.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" s="6" customFormat="true" ht="37.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="9" t="n">
         <v>45529.7097728588</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="9" t="n">
         <v>45530.6022616435</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="1" t="n">
+      <c r="Q2" s="10"/>
+      <c r="R2" s="8" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="16" customFormat="true" ht="184.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="14" t="n">
         <v>45530.6022616088</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="14" t="n">
         <v>45530.6022629514</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="N3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="1" t="n">
+      <c r="R3" s="13" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="16" customFormat="true" ht="90.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="14" t="n">
         <v>45530.012355625</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="14" t="n">
         <v>45530.5994921065</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="N4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="1" t="n">
+      <c r="R4" s="13" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="16" customFormat="true" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="14" t="n">
         <v>45530.5940359607</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="14" t="n">
         <v>45530.5940368287</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="14"/>
+      <c r="I5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="N5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="R5" s="1" t="n">
+      <c r="R5" s="13" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" s="16" customFormat="true" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="14" t="n">
         <v>45530.5912389583</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="14" t="n">
         <v>45530.5919340394</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="14"/>
+      <c r="I6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="N6" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="1" t="n">
+      <c r="R6" s="13" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" s="16" customFormat="true" ht="276.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="14" t="n">
         <v>45530.5840511111</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="14" t="n">
         <v>45530.5852484607</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="14"/>
+      <c r="I7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1" t="s">
+      <c r="N7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="R7" s="1" t="n">
+      <c r="R7" s="13" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" s="16" customFormat="true" ht="345.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="14" t="n">
         <v>45529.9813186574</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="14" t="n">
         <v>45530.5804478588</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="14"/>
+      <c r="I8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1" t="s">
+      <c r="N8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="1" t="n">
+      <c r="R8" s="13" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" s="22" customFormat="true" ht="379.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="20" t="n">
         <v>45529.8892141204</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="20" t="n">
         <v>45530.578196794</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="1" t="s">
+      <c r="H9" s="20"/>
+      <c r="I9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1" t="s">
+      <c r="N9" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R9" s="1" t="n">
+      <c r="R9" s="19" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" s="27" customFormat="true" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="25" t="n">
         <v>45530.5739557407</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="25" t="n">
         <v>45530.5739568866</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="1" t="s">
+      <c r="H10" s="25"/>
+      <c r="I10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1" t="s">
+      <c r="N10" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="R10" s="1" t="n">
+      <c r="R10" s="24" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" s="22" customFormat="true" ht="379.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="20" t="n">
         <v>45529.8920742824</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="20" t="n">
         <v>45530.0184504398</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="20"/>
+      <c r="I11" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1" t="s">
+      <c r="N11" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="R11" s="1" t="n">
+      <c r="R11" s="19" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" s="22" customFormat="true" ht="379.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="20" t="n">
         <v>45529.8854987616</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="20" t="n">
         <v>45530.0181852662</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="1" t="s">
+      <c r="H12" s="20"/>
+      <c r="I12" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1" t="s">
+      <c r="N12" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="P12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="R12" s="1" t="n">
+      <c r="R12" s="19" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="13" s="22" customFormat="true" ht="379.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="20" t="n">
         <v>45529.8774904167</v>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="G13" s="20" t="n">
         <v>45530.0180620833</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="1" t="s">
+      <c r="H13" s="20"/>
+      <c r="I13" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1" t="s">
+      <c r="N13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="R13" s="1" t="n">
+      <c r="R13" s="19" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" s="16" customFormat="true" ht="276.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="14" t="n">
         <v>45530.0169181597</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="14" t="n">
         <v>45530.0169482292</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="1" t="s">
+      <c r="H14" s="14"/>
+      <c r="I14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1" t="s">
+      <c r="N14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="R14" s="1" t="n">
+      <c r="R14" s="13" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="15" s="16" customFormat="true" ht="196.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="14" t="n">
         <v>45529.9744229745</v>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="G15" s="14" t="n">
         <v>45529.974451412</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="1" t="s">
+      <c r="H15" s="14"/>
+      <c r="I15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1" t="s">
+      <c r="N15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="R15" s="1" t="n">
+      <c r="R15" s="13" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="16" s="16" customFormat="true" ht="368.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="14" t="n">
         <v>45529.8390642245</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="14" t="n">
         <v>45529.9395436458</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="1" t="s">
+      <c r="H16" s="14"/>
+      <c r="I16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1" t="s">
+      <c r="N16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="R16" s="1" t="n">
+      <c r="R16" s="13" t="n">
         <v>0</v>
       </c>
     </row>
